--- a/data/input/absenteeism_data_46.xlsx
+++ b/data/input/absenteeism_data_46.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39428</v>
+        <v>13440</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sophie Ribeiro</t>
+          <t>Vicente Silveira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45087</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>9887</v>
+        <v>6135.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>27071</v>
+        <v>30657</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicole Caldeira</t>
+          <t>Carolina da Mota</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45085</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>4879.45</v>
+        <v>7718.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>56760</v>
+        <v>24439</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bernardo da Mota</t>
+          <t>Vitória da Cunha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,27 +552,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="G4" t="n">
-        <v>5659.13</v>
+        <v>10282.69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20888</v>
+        <v>3829</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Matheus da Cruz</t>
+          <t>Manuela da Mota</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,56 +581,56 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45082</v>
+        <v>45096</v>
       </c>
       <c r="G5" t="n">
-        <v>11536.96</v>
+        <v>5408.03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>34764</v>
+        <v>71013</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mirella Gonçalves</t>
+          <t>Dra. Isabel Caldeira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>45100</v>
       </c>
       <c r="G6" t="n">
-        <v>12497.21</v>
+        <v>4685.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>77365</v>
+        <v>8530</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sra. Isabel da Cruz</t>
+          <t>Dr. Davi Luiz Campos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -642,19 +642,19 @@
         <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45105</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>12226.99</v>
+        <v>7777.78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26646</v>
+        <v>42489</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Eduarda Cavalcanti</t>
+          <t>Lavínia Duarte</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,22 +668,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45102</v>
+        <v>45082</v>
       </c>
       <c r="G8" t="n">
-        <v>12259.17</v>
+        <v>6447.23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>36805</v>
+        <v>40095</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pietra Gomes</t>
+          <t>Ana Lívia Melo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,75 +693,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45084</v>
       </c>
       <c r="G9" t="n">
-        <v>3123.54</v>
+        <v>9692.73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>52440</v>
+        <v>8472</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Augusto Caldeira</t>
+          <t>Igor Moura</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45100</v>
+        <v>45102</v>
       </c>
       <c r="G10" t="n">
-        <v>9019.76</v>
+        <v>5388.62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>75372</v>
+        <v>14979</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Theo Melo</t>
+          <t>Sra. Milena Cardoso</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45099</v>
       </c>
       <c r="G11" t="n">
-        <v>4385.34</v>
+        <v>5549.26</v>
       </c>
     </row>
   </sheetData>
